--- a/data/trans_orig/Q5411-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42DB18F7-F630-45DE-8621-2DC92E7F072B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB8A69B3-2E12-4F48-B74A-639B08CCF874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C0A3805-5B47-4DEB-946B-02CA2B4F80B1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F01AD6C4-6096-49AE-BF38-1A06A9C3E073}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>7,42%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>2,98%</t>
@@ -95,10 +95,10 @@
     <t>5,08%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -107,10 +107,10 @@
     <t>92,58%</t>
   </si>
   <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>97,02%</t>
@@ -125,10 +125,10 @@
     <t>94,92%</t>
   </si>
   <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1714 +140,1750 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>7,79%</t>
+    <t>8,1%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>88,03%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>97,34%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>3,62%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B2528-A405-4B1B-982E-6DB6479FCA22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F716257-6592-4D67-8090-9894D145B320}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3319,7 +3355,7 @@
         <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3328,13 +3364,13 @@
         <v>5027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -3343,13 +3379,13 @@
         <v>8458</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,10 +3403,10 @@
         <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>112</v>
@@ -3379,13 +3415,13 @@
         <v>112094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>216</v>
@@ -3394,10 +3430,10 @@
         <v>214591</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>138</v>
@@ -3471,10 +3507,10 @@
         <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3483,13 +3519,13 @@
         <v>16623</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -3498,10 +3534,10 @@
         <v>25780</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>147</v>
@@ -3525,7 +3561,7 @@
         <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>130</v>
@@ -3534,13 +3570,13 @@
         <v>136602</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -3549,13 +3585,13 @@
         <v>239338</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3659,13 @@
         <v>27931</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -3638,13 +3674,13 @@
         <v>64832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>89</v>
@@ -3653,13 +3689,13 @@
         <v>92763</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3710,13 @@
         <v>474535</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>602</v>
@@ -3689,13 +3725,13 @@
         <v>612010</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>1095</v>
@@ -3704,13 +3740,13 @@
         <v>1086545</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,7 +3802,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3790,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF91D4A4-CB58-4793-B550-8BF45ABEB659}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABADC03-DF6F-4076-BCE6-43D5F9853793}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3807,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3912,39 +3948,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,39 +3993,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,39 +4038,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4087,13 @@
         <v>9646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4066,13 +4102,13 @@
         <v>27329</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4081,13 +4117,13 @@
         <v>36974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4138,13 @@
         <v>69557</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>69</v>
@@ -4117,13 +4153,13 @@
         <v>74764</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>131</v>
@@ -4132,13 +4168,13 @@
         <v>144322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4242,13 @@
         <v>8218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4221,13 +4257,13 @@
         <v>17428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4236,13 +4272,13 @@
         <v>25646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4293,13 @@
         <v>47524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -4272,13 +4308,13 @@
         <v>62540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
@@ -4287,13 +4323,13 @@
         <v>110064</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,10 +4400,10 @@
         <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -4376,13 +4412,13 @@
         <v>33212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -4391,13 +4427,13 @@
         <v>43756</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,10 +4451,10 @@
         <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -4427,13 +4463,13 @@
         <v>101256</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -4442,13 +4478,13 @@
         <v>199021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4552,13 @@
         <v>6705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4531,13 +4567,13 @@
         <v>13369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4546,13 +4582,13 @@
         <v>20074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4603,13 @@
         <v>24907</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -4582,13 +4618,13 @@
         <v>36486</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -4597,13 +4633,13 @@
         <v>61393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4707,13 @@
         <v>7495</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4686,13 +4722,13 @@
         <v>19139</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -4701,13 +4737,13 @@
         <v>26634</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4758,13 @@
         <v>44261</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -4737,13 +4773,13 @@
         <v>51073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -4752,13 +4788,13 @@
         <v>95334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4862,13 @@
         <v>13450</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -4841,13 +4877,13 @@
         <v>30243</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -4856,13 +4892,13 @@
         <v>43694</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4913,13 @@
         <v>98813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>102</v>
@@ -4892,13 +4928,13 @@
         <v>111719</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>191</v>
@@ -4907,13 +4943,13 @@
         <v>210532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +5017,13 @@
         <v>5397</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -4996,13 +5032,13 @@
         <v>22363</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -5011,13 +5047,13 @@
         <v>27760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5068,13 @@
         <v>115355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>131</v>
@@ -5047,13 +5083,13 @@
         <v>142054</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>232</v>
@@ -5062,13 +5098,13 @@
         <v>257409</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5172,13 @@
         <v>61456</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>149</v>
@@ -5151,13 +5187,13 @@
         <v>163082</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>202</v>
@@ -5166,13 +5202,13 @@
         <v>224538</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5223,13 @@
         <v>498181</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>545</v>
@@ -5202,13 +5238,13 @@
         <v>579893</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>114</v>
       </c>
       <c r="M29" s="7">
         <v>996</v>
@@ -5217,13 +5253,13 @@
         <v>1078074</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5315,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D5A115-BB50-4929-8918-9FFD61037540}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7A60CB-947D-4941-BD97-110398CBD07B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5320,7 +5356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5427,13 +5463,13 @@
         <v>5783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5442,13 +5478,13 @@
         <v>10613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5457,13 +5493,13 @@
         <v>16396</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5514,13 @@
         <v>33113</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -5493,13 +5529,13 @@
         <v>38778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -5508,13 +5544,13 @@
         <v>71891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5618,13 @@
         <v>4464</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5597,13 +5633,13 @@
         <v>15331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5612,13 +5648,13 @@
         <v>19796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5669,13 @@
         <v>82831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>84</v>
@@ -5648,13 +5684,13 @@
         <v>99897</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -5663,13 +5699,13 @@
         <v>182727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5773,13 @@
         <v>2817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5752,13 +5788,13 @@
         <v>5711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5767,13 +5803,13 @@
         <v>8528</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5824,13 @@
         <v>60729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>65</v>
@@ -5803,13 +5839,13 @@
         <v>74186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>134</v>
@@ -5818,13 +5854,13 @@
         <v>134915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5928,13 @@
         <v>7736</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5907,13 +5943,13 @@
         <v>11930</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5922,13 +5958,13 @@
         <v>19666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5979,13 @@
         <v>56976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -5958,13 +5994,13 @@
         <v>79644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -5973,13 +6009,13 @@
         <v>136619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6083,13 @@
         <v>799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6062,13 +6098,13 @@
         <v>6875</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6080,10 +6116,10 @@
         <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,10 +6134,10 @@
         <v>41281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -6113,13 +6149,13 @@
         <v>43657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6131,10 +6167,10 @@
         <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6238,13 @@
         <v>6643</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6217,13 +6253,13 @@
         <v>14886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6232,13 +6268,13 @@
         <v>21529</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6289,13 @@
         <v>41803</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -6268,13 +6304,13 @@
         <v>52502</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -6283,13 +6319,13 @@
         <v>94305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6393,13 @@
         <v>12241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6372,13 +6408,13 @@
         <v>24112</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6387,13 +6423,13 @@
         <v>36353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6444,13 @@
         <v>99944</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -6423,13 +6459,13 @@
         <v>123513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>201</v>
@@ -6438,13 +6474,13 @@
         <v>223457</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6548,13 @@
         <v>7371</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6527,13 +6563,13 @@
         <v>13229</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6542,13 +6578,13 @@
         <v>20600</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6599,13 @@
         <v>126797</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -6578,13 +6614,13 @@
         <v>163068</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>266</v>
@@ -6593,13 +6629,13 @@
         <v>289865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6703,13 @@
         <v>47855</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -6682,13 +6718,13 @@
         <v>102686</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="M28" s="7">
         <v>133</v>
@@ -6697,13 +6733,13 @@
         <v>150541</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6754,13 @@
         <v>543473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>575</v>
@@ -6733,13 +6769,13 @@
         <v>675245</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>1149</v>
@@ -6748,13 +6784,13 @@
         <v>1218718</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6846,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6834,7 +6870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1FF69E-655C-496E-9760-633248003C53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85F7EAD-3595-4D50-9158-F9CB13D55AE4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6851,7 +6887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6958,13 +6994,13 @@
         <v>3610</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -6973,13 +7009,13 @@
         <v>9368</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -6988,13 +7024,13 @@
         <v>12978</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,13 +7045,13 @@
         <v>48310</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>115</v>
@@ -7024,13 +7060,13 @@
         <v>52851</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -7039,13 +7075,13 @@
         <v>101161</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7149,13 @@
         <v>8694</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -7128,13 +7164,13 @@
         <v>28070</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -7143,13 +7179,13 @@
         <v>36764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7200,13 @@
         <v>77620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="H8" s="7">
         <v>181</v>
@@ -7179,13 +7215,13 @@
         <v>113287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="M8" s="7">
         <v>267</v>
@@ -7194,13 +7230,13 @@
         <v>190907</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7304,13 @@
         <v>12915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -7283,13 +7319,13 @@
         <v>15667</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -7298,13 +7334,13 @@
         <v>28581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7355,13 @@
         <v>64686</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="H11" s="7">
         <v>140</v>
@@ -7334,13 +7370,13 @@
         <v>79284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -7349,13 +7385,13 @@
         <v>143971</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,13 +7459,13 @@
         <v>2987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -7438,13 +7474,13 @@
         <v>17837</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>514</v>
+        <v>407</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -7453,13 +7489,13 @@
         <v>20824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>517</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>518</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7510,13 @@
         <v>75818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -7489,13 +7525,13 @@
         <v>92618</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>417</v>
       </c>
       <c r="M14" s="7">
         <v>329</v>
@@ -7504,13 +7540,13 @@
         <v>168436</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,13 +7614,13 @@
         <v>5651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7593,13 +7629,13 @@
         <v>10676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -7608,13 +7644,13 @@
         <v>16327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>540</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>530</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,13 +7665,13 @@
         <v>32680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -7644,13 +7680,13 @@
         <v>54419</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -7659,13 +7695,13 @@
         <v>87099</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
+        <v>547</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>548</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>536</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7769,13 @@
         <v>5221</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -7748,13 +7784,13 @@
         <v>14682</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -7763,13 +7799,13 @@
         <v>19903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7820,13 @@
         <v>57962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="H20" s="7">
         <v>136</v>
@@ -7799,13 +7835,13 @@
         <v>55171</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="M20" s="7">
         <v>259</v>
@@ -7814,13 +7850,13 @@
         <v>113134</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,13 +7924,13 @@
         <v>8445</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -7903,13 +7939,13 @@
         <v>22629</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -7918,13 +7954,13 @@
         <v>31074</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7975,13 @@
         <v>122395</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="H23" s="7">
         <v>208</v>
@@ -7954,13 +7990,13 @@
         <v>235551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="M23" s="7">
         <v>367</v>
@@ -7969,13 +8005,13 @@
         <v>357946</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8043,13 +8079,13 @@
         <v>5795</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>573</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -8058,13 +8094,13 @@
         <v>14483</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>574</v>
+        <v>374</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>588</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -8073,13 +8109,13 @@
         <v>20278</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,13 +8130,13 @@
         <v>164132</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>579</v>
+        <v>451</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="H26" s="7">
         <v>321</v>
@@ -8109,13 +8145,13 @@
         <v>208560</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>581</v>
+        <v>384</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>594</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="M26" s="7">
         <v>547</v>
@@ -8124,13 +8160,13 @@
         <v>372692</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>597</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,13 +8234,13 @@
         <v>53316</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>585</v>
+        <v>69</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="H28" s="7">
         <v>249</v>
@@ -8213,13 +8249,13 @@
         <v>133411</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="M28" s="7">
         <v>328</v>
@@ -8228,13 +8264,13 @@
         <v>186728</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,13 +8285,13 @@
         <v>643605</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>594</v>
+        <v>77</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="H29" s="7">
         <v>1456</v>
@@ -8264,13 +8300,13 @@
         <v>891742</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="M29" s="7">
         <v>2404</v>
@@ -8279,13 +8315,13 @@
         <v>1535346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,7 +8377,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5411-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB8A69B3-2E12-4F48-B74A-639B08CCF874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B331549-51A2-4F4D-AC76-4D00620AFACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F01AD6C4-6096-49AE-BF38-1A06A9C3E073}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C24E008-7F0D-4353-A601-227BC30AE5AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>7,42%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>2,98%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>13,74%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -107,16 +107,16 @@
     <t>92,58%</t>
   </si>
   <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>97,02%</t>
   </si>
   <si>
-    <t>85,48%</t>
+    <t>86,26%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>94,92%</t>
   </si>
   <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,43 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>91,9%</t>
-  </si>
-  <si>
     <t>89,44%</t>
   </si>
   <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -191,1675 +185,1657 @@
     <t>5,76%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
   </si>
   <si>
     <t>90,49%</t>
@@ -2295,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F716257-6592-4D67-8090-9894D145B320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFADD7D6-071E-49AF-BBC6-23E2C1E477D3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2580,7 +2556,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -2589,13 +2565,13 @@
         <v>10337</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2604,13 +2580,13 @@
         <v>11323</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,10 +2601,10 @@
         <v>65668</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -2640,13 +2616,13 @@
         <v>87538</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>150</v>
@@ -2655,13 +2631,13 @@
         <v>153206</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,7 +2693,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2729,13 +2705,13 @@
         <v>2934</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2744,13 +2720,13 @@
         <v>10167</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2759,13 +2735,13 @@
         <v>13101</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2756,13 @@
         <v>48006</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>73</v>
@@ -2795,13 +2771,13 @@
         <v>73354</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>123</v>
@@ -2810,13 +2786,13 @@
         <v>121360</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,7 +2848,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2884,13 +2860,13 @@
         <v>831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2899,13 +2875,13 @@
         <v>7691</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2914,13 +2890,13 @@
         <v>8521</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,10 +2911,10 @@
         <v>54291</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -2950,13 +2926,13 @@
         <v>66622</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -2965,13 +2941,13 @@
         <v>120915</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,7 +3003,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3039,13 +3015,13 @@
         <v>4281</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3054,13 +3030,13 @@
         <v>7766</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3069,13 +3045,13 @@
         <v>12048</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3066,13 @@
         <v>25066</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3105,13 +3081,13 @@
         <v>33480</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -3120,13 +3096,13 @@
         <v>58545</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,7 +3158,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3194,13 +3170,13 @@
         <v>3687</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3209,13 +3185,13 @@
         <v>6052</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -3224,13 +3200,13 @@
         <v>9739</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3221,13 @@
         <v>43509</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -3260,13 +3236,13 @@
         <v>64257</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -3275,13 +3251,13 @@
         <v>107767</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3313,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3349,13 +3325,13 @@
         <v>3431</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3364,13 +3340,13 @@
         <v>5027</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -3379,13 +3355,13 @@
         <v>8458</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3376,13 @@
         <v>102497</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>112</v>
@@ -3415,13 +3391,13 @@
         <v>112094</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>216</v>
@@ -3430,10 +3406,10 @@
         <v>214591</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>138</v>
@@ -3504,13 +3480,13 @@
         <v>9157</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3519,13 +3495,13 @@
         <v>16623</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -3534,13 +3510,13 @@
         <v>25780</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3531,13 @@
         <v>102736</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>130</v>
@@ -3570,13 +3546,13 @@
         <v>136602</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -3585,13 +3561,13 @@
         <v>239338</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3635,13 @@
         <v>27931</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -3674,13 +3650,13 @@
         <v>64832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M28" s="7">
         <v>89</v>
@@ -3689,13 +3665,13 @@
         <v>92763</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3686,13 @@
         <v>474535</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>602</v>
@@ -3725,13 +3701,13 @@
         <v>612010</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>1095</v>
@@ -3740,13 +3716,13 @@
         <v>1086545</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3778,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABADC03-DF6F-4076-BCE6-43D5F9853793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA1FE02-91FD-4D78-A552-CD18FE81EF73}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3843,7 +3819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3948,39 +3924,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,39 +3969,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,39 +4014,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4063,13 @@
         <v>9646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4102,13 +4078,13 @@
         <v>27329</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4117,13 +4093,13 @@
         <v>36974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4114,13 @@
         <v>69557</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>69</v>
@@ -4153,13 +4129,13 @@
         <v>74764</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>131</v>
@@ -4168,13 +4144,13 @@
         <v>144322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,7 +4206,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4242,13 +4218,13 @@
         <v>8218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4257,13 +4233,13 @@
         <v>17428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4272,13 +4248,13 @@
         <v>25646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4269,13 @@
         <v>47524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -4308,13 +4284,13 @@
         <v>62540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
@@ -4323,13 +4299,13 @@
         <v>110064</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,7 +4361,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4397,13 +4373,13 @@
         <v>10544</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -4412,13 +4388,13 @@
         <v>33212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -4427,13 +4403,13 @@
         <v>43756</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4424,13 @@
         <v>97764</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -4463,13 +4439,13 @@
         <v>101256</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -4478,13 +4454,13 @@
         <v>199021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4516,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4552,13 +4528,13 @@
         <v>6705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4567,13 +4543,13 @@
         <v>13369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4582,13 +4558,13 @@
         <v>20074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4579,13 @@
         <v>24907</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -4618,13 +4594,13 @@
         <v>36486</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -4633,13 +4609,13 @@
         <v>61393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,7 +4671,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4707,13 +4683,13 @@
         <v>7495</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4722,13 +4698,13 @@
         <v>19139</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -4737,13 +4713,13 @@
         <v>26634</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4734,13 @@
         <v>44261</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -4773,13 +4749,13 @@
         <v>51073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -4788,13 +4764,13 @@
         <v>95334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4826,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4862,13 +4838,13 @@
         <v>13450</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -4877,13 +4853,13 @@
         <v>30243</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -4892,13 +4868,13 @@
         <v>43694</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4889,13 @@
         <v>98813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
         <v>102</v>
@@ -4928,13 +4904,13 @@
         <v>111719</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M23" s="7">
         <v>191</v>
@@ -4943,13 +4919,13 @@
         <v>210532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +4993,13 @@
         <v>5397</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -5032,13 +5008,13 @@
         <v>22363</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -5047,13 +5023,13 @@
         <v>27760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5044,13 @@
         <v>115355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H26" s="7">
         <v>131</v>
@@ -5083,13 +5059,13 @@
         <v>142054</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>232</v>
@@ -5098,13 +5074,13 @@
         <v>257409</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5148,13 @@
         <v>61456</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="H28" s="7">
         <v>149</v>
@@ -5187,13 +5163,13 @@
         <v>163082</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M28" s="7">
         <v>202</v>
@@ -5202,13 +5178,13 @@
         <v>224538</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5199,13 @@
         <v>498181</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H29" s="7">
         <v>545</v>
@@ -5238,13 +5214,13 @@
         <v>579893</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>996</v>
@@ -5253,13 +5229,13 @@
         <v>1078074</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5291,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7A60CB-947D-4941-BD97-110398CBD07B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25053777-AB57-427A-A632-47EA15DBA929}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5463,13 +5439,13 @@
         <v>5783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5478,13 +5454,13 @@
         <v>10613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5493,13 +5469,13 @@
         <v>16396</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5490,13 @@
         <v>33113</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -5529,28 +5505,28 @@
         <v>38778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
       </c>
       <c r="N5" s="7">
-        <v>71891</v>
+        <v>71890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5568,7 @@
         <v>85</v>
       </c>
       <c r="N6" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5618,13 +5594,13 @@
         <v>4464</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5633,13 +5609,13 @@
         <v>15331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5648,13 +5624,13 @@
         <v>19796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5645,13 @@
         <v>82831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>84</v>
@@ -5684,13 +5660,13 @@
         <v>99897</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -5699,13 +5675,13 @@
         <v>182727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,7 +5737,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5773,13 +5749,13 @@
         <v>2817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5788,13 +5764,13 @@
         <v>5711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5803,13 +5779,13 @@
         <v>8528</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5800,13 @@
         <v>60729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>65</v>
@@ -5839,13 +5815,13 @@
         <v>74186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>134</v>
@@ -5854,13 +5830,13 @@
         <v>134915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5892,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5928,13 +5904,13 @@
         <v>7736</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5943,13 +5919,13 @@
         <v>11930</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5958,13 +5934,13 @@
         <v>19666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5955,13 @@
         <v>56976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -5994,13 +5970,13 @@
         <v>79644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -6009,13 +5985,13 @@
         <v>136619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,7 +6047,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6083,13 +6059,13 @@
         <v>799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6098,13 +6074,13 @@
         <v>6875</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6113,13 +6089,13 @@
         <v>7674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,10 +6110,10 @@
         <v>41281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -6149,13 +6125,13 @@
         <v>43657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6164,13 +6140,13 @@
         <v>84938</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,7 +6202,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6238,13 +6214,13 @@
         <v>6643</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6253,13 +6229,13 @@
         <v>14886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6268,13 +6244,13 @@
         <v>21529</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6265,13 @@
         <v>41803</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>151</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -6304,13 +6280,13 @@
         <v>52502</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -6319,13 +6295,13 @@
         <v>94305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,7 +6357,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6393,13 +6369,13 @@
         <v>12241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6408,13 +6384,13 @@
         <v>24112</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6423,13 +6399,13 @@
         <v>36353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6420,13 @@
         <v>99944</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -6459,13 +6435,13 @@
         <v>123513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>201</v>
@@ -6474,13 +6450,13 @@
         <v>223457</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6524,13 @@
         <v>7371</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6563,13 +6539,13 @@
         <v>13229</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6578,13 +6554,13 @@
         <v>20600</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6575,13 @@
         <v>126797</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -6614,13 +6590,13 @@
         <v>163068</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>266</v>
@@ -6629,13 +6605,13 @@
         <v>289865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6679,13 @@
         <v>47855</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -6718,13 +6694,13 @@
         <v>102686</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>133</v>
@@ -6733,13 +6709,13 @@
         <v>150541</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6730,13 @@
         <v>543473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>575</v>
@@ -6769,13 +6745,13 @@
         <v>675245</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>1149</v>
@@ -6784,13 +6760,13 @@
         <v>1218718</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6822,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6870,7 +6846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85F7EAD-3595-4D50-9158-F9CB13D55AE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919AE3A6-A9A6-4ED2-93F5-479BF83AB4D9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6994,13 +6970,13 @@
         <v>3610</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -7009,13 +6985,13 @@
         <v>9368</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -7024,13 +7000,13 @@
         <v>12978</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7021,13 @@
         <v>48310</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>115</v>
@@ -7060,13 +7036,13 @@
         <v>52851</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -7075,13 +7051,13 @@
         <v>101161</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7125,13 @@
         <v>8694</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -7164,13 +7140,13 @@
         <v>28070</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -7179,13 +7155,13 @@
         <v>36764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7176,13 @@
         <v>77620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>181</v>
@@ -7215,13 +7191,13 @@
         <v>113287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>267</v>
@@ -7230,13 +7206,13 @@
         <v>190907</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,7 +7268,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7304,13 +7280,13 @@
         <v>12915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -7319,13 +7295,13 @@
         <v>15667</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -7334,13 +7310,13 @@
         <v>28581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7331,13 @@
         <v>64686</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H11" s="7">
         <v>140</v>
@@ -7370,13 +7346,13 @@
         <v>79284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -7385,13 +7361,13 @@
         <v>143971</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,7 +7423,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7459,13 +7435,13 @@
         <v>2987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -7474,13 +7450,13 @@
         <v>17837</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>407</v>
+        <v>519</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -7489,13 +7465,13 @@
         <v>20824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7486,13 @@
         <v>75818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -7525,13 +7501,13 @@
         <v>92618</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>417</v>
+        <v>525</v>
       </c>
       <c r="M14" s="7">
         <v>329</v>
@@ -7540,13 +7516,13 @@
         <v>168436</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,7 +7578,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7614,13 +7590,13 @@
         <v>5651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>536</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7629,13 +7605,13 @@
         <v>10676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>539</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -7644,13 +7620,13 @@
         <v>16327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>322</v>
+        <v>531</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7641,13 @@
         <v>32680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>542</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -7680,13 +7656,13 @@
         <v>54419</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>545</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -7695,13 +7671,13 @@
         <v>87099</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,7 +7733,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7769,13 +7745,13 @@
         <v>5221</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -7784,13 +7760,13 @@
         <v>14682</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -7799,13 +7775,13 @@
         <v>19903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7796,13 @@
         <v>57962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H20" s="7">
         <v>136</v>
@@ -7835,13 +7811,13 @@
         <v>55171</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="M20" s="7">
         <v>259</v>
@@ -7850,13 +7826,13 @@
         <v>113134</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7912,7 +7888,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7924,13 +7900,13 @@
         <v>8445</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -7939,13 +7915,13 @@
         <v>22629</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -7954,13 +7930,13 @@
         <v>31074</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +7951,13 @@
         <v>122395</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="H23" s="7">
         <v>208</v>
@@ -7990,13 +7966,13 @@
         <v>235551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="M23" s="7">
         <v>367</v>
@@ -8005,13 +7981,13 @@
         <v>357946</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,13 +8055,13 @@
         <v>5795</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -8094,13 +8070,13 @@
         <v>14483</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>576</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -8109,13 +8085,13 @@
         <v>20278</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8106,13 @@
         <v>164132</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>593</v>
+        <v>58</v>
       </c>
       <c r="H26" s="7">
         <v>321</v>
@@ -8145,13 +8121,13 @@
         <v>208560</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>384</v>
+        <v>583</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="M26" s="7">
         <v>547</v>
@@ -8160,13 +8136,13 @@
         <v>372692</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8210,13 @@
         <v>53316</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>69</v>
+        <v>589</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="H28" s="7">
         <v>249</v>
@@ -8249,13 +8225,13 @@
         <v>133411</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="M28" s="7">
         <v>328</v>
@@ -8264,13 +8240,13 @@
         <v>186728</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8261,13 @@
         <v>643605</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>77</v>
+        <v>598</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H29" s="7">
         <v>1456</v>
@@ -8300,13 +8276,13 @@
         <v>891742</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M29" s="7">
         <v>2404</v>
@@ -8315,13 +8291,13 @@
         <v>1535346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,7 +8353,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5411-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B331549-51A2-4F4D-AC76-4D00620AFACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E6B0CD-5B46-4769-BAC3-366F2524C1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C24E008-7F0D-4353-A601-227BC30AE5AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4EE82B7-8D06-40A3-ACDF-14ABD8D7716A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="603">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>7,42%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>2,98%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,74%</t>
+    <t>14,52%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -107,16 +107,16 @@
     <t>92,58%</t>
   </si>
   <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>97,02%</t>
   </si>
   <si>
-    <t>86,26%</t>
+    <t>85,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>94,92%</t>
   </si>
   <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,43 +140,49 @@
     <t>1,48%</t>
   </si>
   <si>
+    <t>7,79%</t>
+  </si>
+  <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
+    <t>92,21%</t>
+  </si>
+  <si>
     <t>89,44%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -185,1681 +191,1663 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>88,08%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>89,74%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>96,38%</t>
   </si>
   <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFADD7D6-071E-49AF-BBC6-23E2C1E477D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA0FAAD-F182-412E-A775-36DD14A5B79B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2556,7 +2544,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -2565,13 +2553,13 @@
         <v>10337</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2580,13 +2568,13 @@
         <v>11323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,10 +2589,10 @@
         <v>65668</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -2616,13 +2604,13 @@
         <v>87538</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>150</v>
@@ -2631,13 +2619,13 @@
         <v>153206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,7 +2681,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2705,13 +2693,13 @@
         <v>2934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2720,13 +2708,13 @@
         <v>10167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2735,13 +2723,13 @@
         <v>13101</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2744,13 @@
         <v>48006</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>73</v>
@@ -2771,13 +2759,13 @@
         <v>73354</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>123</v>
@@ -2786,13 +2774,13 @@
         <v>121360</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,7 +2836,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2860,13 +2848,13 @@
         <v>831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2875,13 +2863,13 @@
         <v>7691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2890,13 +2878,13 @@
         <v>8521</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,10 +2899,10 @@
         <v>54291</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -2926,13 +2914,13 @@
         <v>66622</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -2941,13 +2929,13 @@
         <v>120915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +2991,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3015,13 +3003,13 @@
         <v>4281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3030,13 +3018,13 @@
         <v>7766</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3045,13 +3033,13 @@
         <v>12048</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3054,13 @@
         <v>25066</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3081,13 +3069,13 @@
         <v>33480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -3096,13 +3084,13 @@
         <v>58545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3146,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3170,13 +3158,13 @@
         <v>3687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3185,13 +3173,13 @@
         <v>6052</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -3200,13 +3188,13 @@
         <v>9739</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3209,13 @@
         <v>43509</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -3236,13 +3224,13 @@
         <v>64257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -3251,13 +3239,13 @@
         <v>107767</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3301,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3325,13 +3313,13 @@
         <v>3431</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3340,13 +3328,13 @@
         <v>5027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -3355,13 +3343,13 @@
         <v>8458</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,10 +3364,10 @@
         <v>102497</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>132</v>
@@ -3480,10 +3468,10 @@
         <v>9157</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>141</v>
@@ -3513,10 +3501,10 @@
         <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3519,13 @@
         <v>102736</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>130</v>
@@ -3546,13 +3534,13 @@
         <v>136602</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -3561,13 +3549,13 @@
         <v>239338</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3623,13 @@
         <v>27931</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -3650,13 +3638,13 @@
         <v>64832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>89</v>
@@ -3665,13 +3653,13 @@
         <v>92763</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3674,13 @@
         <v>474535</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>602</v>
@@ -3701,13 +3689,13 @@
         <v>612010</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>1095</v>
@@ -3716,13 +3704,13 @@
         <v>1086545</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,7 +3766,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3802,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA1FE02-91FD-4D78-A552-CD18FE81EF73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA37D2A-4B02-499B-A239-415DCF7E79D5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3819,7 +3807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3924,39 +3912,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,39 +3957,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,39 +4002,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4051,13 @@
         <v>9646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4078,13 +4066,13 @@
         <v>27329</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4093,13 +4081,13 @@
         <v>36974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4102,13 @@
         <v>69557</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>69</v>
@@ -4129,13 +4117,13 @@
         <v>74764</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>131</v>
@@ -4144,13 +4132,13 @@
         <v>144322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,7 +4194,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4218,13 +4206,13 @@
         <v>8218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4233,13 +4221,13 @@
         <v>17428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4248,13 +4236,13 @@
         <v>25646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4257,13 @@
         <v>47524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -4361,7 +4349,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4373,7 +4361,7 @@
         <v>10544</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>209</v>
@@ -4424,7 +4412,7 @@
         <v>97764</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>217</v>
@@ -4516,7 +4504,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4528,13 +4516,13 @@
         <v>6705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4543,13 +4531,13 @@
         <v>13369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4558,13 +4546,13 @@
         <v>20074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4567,13 @@
         <v>24907</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -4594,13 +4582,13 @@
         <v>36486</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -4609,13 +4597,13 @@
         <v>61393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,7 +4659,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4683,13 +4671,13 @@
         <v>7495</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4698,13 +4686,13 @@
         <v>19139</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -4713,13 +4701,13 @@
         <v>26634</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4722,13 @@
         <v>44261</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>51</v>
@@ -4826,7 +4814,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4996,10 +4984,10 @@
         <v>277</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -5008,10 +4996,10 @@
         <v>22363</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>281</v>
@@ -5050,7 +5038,7 @@
         <v>286</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="H26" s="7">
         <v>131</v>
@@ -5059,13 +5047,13 @@
         <v>142054</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>232</v>
@@ -5154,7 +5142,7 @@
         <v>294</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>149</v>
@@ -5163,13 +5151,13 @@
         <v>163082</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M28" s="7">
         <v>202</v>
@@ -5178,13 +5166,13 @@
         <v>224538</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5187,13 @@
         <v>498181</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H29" s="7">
         <v>545</v>
@@ -5214,13 +5202,13 @@
         <v>579893</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>996</v>
@@ -5229,13 +5217,13 @@
         <v>1078074</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,7 +5279,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5315,7 +5303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25053777-AB57-427A-A632-47EA15DBA929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BC5DB9-4EB8-41FD-97FA-44B5A2C1FA7E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5439,13 +5427,13 @@
         <v>5783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5454,13 +5442,13 @@
         <v>10613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5469,13 +5457,13 @@
         <v>16396</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5478,13 @@
         <v>33113</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -5505,28 +5493,28 @@
         <v>38778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
       </c>
       <c r="N5" s="7">
-        <v>71890</v>
+        <v>71891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,7 +5556,7 @@
         <v>85</v>
       </c>
       <c r="N6" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5594,13 +5582,13 @@
         <v>4464</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5609,13 +5597,13 @@
         <v>15331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5624,13 +5612,13 @@
         <v>19796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5633,13 @@
         <v>82831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>84</v>
@@ -5660,13 +5648,13 @@
         <v>99897</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -5675,13 +5663,13 @@
         <v>182727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,7 +5725,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5749,13 +5737,13 @@
         <v>2817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5764,13 +5752,13 @@
         <v>5711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5779,13 +5767,13 @@
         <v>8528</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5788,13 @@
         <v>60729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>65</v>
@@ -5815,13 +5803,13 @@
         <v>74186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>134</v>
@@ -5830,13 +5818,13 @@
         <v>134915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,7 +5880,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5904,13 +5892,13 @@
         <v>7736</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5919,13 +5907,13 @@
         <v>11930</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5934,13 +5922,13 @@
         <v>19666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,10 +5943,10 @@
         <v>56976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>373</v>
@@ -6047,7 +6035,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6074,7 +6062,7 @@
         <v>6875</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>382</v>
@@ -6089,7 +6077,7 @@
         <v>7674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>384</v>
@@ -6125,7 +6113,7 @@
         <v>43657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>388</v>
@@ -6140,7 +6128,7 @@
         <v>84938</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>390</v>
@@ -6202,7 +6190,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6217,10 +6205,10 @@
         <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6229,10 +6217,10 @@
         <v>14886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>396</v>
@@ -6247,10 +6235,10 @@
         <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6253,13 @@
         <v>41803</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -6286,7 +6274,7 @@
         <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -6295,13 +6283,13 @@
         <v>94305</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,7 +6345,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6369,13 +6357,13 @@
         <v>12241</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6384,13 +6372,13 @@
         <v>24112</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6399,13 +6387,13 @@
         <v>36353</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6408,13 @@
         <v>99944</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -6435,13 +6423,13 @@
         <v>123513</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>201</v>
@@ -6450,13 +6438,13 @@
         <v>223457</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6512,13 @@
         <v>7371</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6539,13 +6527,13 @@
         <v>13229</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6554,13 +6542,13 @@
         <v>20600</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6563,13 @@
         <v>126797</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -6590,13 +6578,13 @@
         <v>163068</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>266</v>
@@ -6605,13 +6593,13 @@
         <v>289865</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6667,13 @@
         <v>47855</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>445</v>
+        <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -6694,13 +6682,13 @@
         <v>102686</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M28" s="7">
         <v>133</v>
@@ -6709,13 +6697,13 @@
         <v>150541</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6718,13 @@
         <v>543473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>455</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>575</v>
@@ -6745,13 +6733,13 @@
         <v>675245</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M29" s="7">
         <v>1149</v>
@@ -6760,13 +6748,13 @@
         <v>1218718</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,7 +6810,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6846,7 +6834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919AE3A6-A9A6-4ED2-93F5-479BF83AB4D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4520EE-D028-4039-B61B-E3AF35E1FADB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6863,7 +6851,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6970,13 +6958,13 @@
         <v>3610</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -6985,13 +6973,13 @@
         <v>9368</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -7000,13 +6988,13 @@
         <v>12978</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +7009,13 @@
         <v>48310</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H5" s="7">
         <v>115</v>
@@ -7036,13 +7024,13 @@
         <v>52851</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -7051,13 +7039,13 @@
         <v>101161</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7113,13 @@
         <v>8694</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -7140,13 +7128,13 @@
         <v>28070</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -7155,13 +7143,13 @@
         <v>36764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7164,13 @@
         <v>77620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H8" s="7">
         <v>181</v>
@@ -7191,13 +7179,13 @@
         <v>113287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M8" s="7">
         <v>267</v>
@@ -7206,13 +7194,13 @@
         <v>190907</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,7 +7256,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7280,13 +7268,13 @@
         <v>12915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -7295,13 +7283,13 @@
         <v>15667</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -7310,13 +7298,13 @@
         <v>28581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7319,13 @@
         <v>64686</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H11" s="7">
         <v>140</v>
@@ -7346,13 +7334,13 @@
         <v>79284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -7361,13 +7349,13 @@
         <v>143971</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,7 +7411,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7435,13 +7423,13 @@
         <v>2987</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -7450,13 +7438,13 @@
         <v>17837</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -7465,13 +7453,13 @@
         <v>20824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>517</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,10 +7477,10 @@
         <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -7501,13 +7489,13 @@
         <v>92618</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>329</v>
@@ -7516,13 +7504,13 @@
         <v>168436</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>523</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,7 +7566,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7590,13 +7578,13 @@
         <v>5651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>526</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7605,13 +7593,13 @@
         <v>10676</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -7620,13 +7608,13 @@
         <v>16327</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>531</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>532</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7629,13 @@
         <v>32680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>531</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -7656,10 +7644,10 @@
         <v>54419</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>535</v>
@@ -7671,13 +7659,13 @@
         <v>87099</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,7 +7721,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7745,13 +7733,13 @@
         <v>5221</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -7760,13 +7748,13 @@
         <v>14682</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -7775,13 +7763,13 @@
         <v>19903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7784,13 @@
         <v>57962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>136</v>
@@ -7811,13 +7799,13 @@
         <v>55171</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>259</v>
@@ -7826,13 +7814,13 @@
         <v>113134</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,7 +7876,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7900,13 +7888,13 @@
         <v>8445</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -7915,13 +7903,13 @@
         <v>22629</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -7930,13 +7918,13 @@
         <v>31074</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7939,13 @@
         <v>122395</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H23" s="7">
         <v>208</v>
@@ -7966,13 +7954,13 @@
         <v>235551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M23" s="7">
         <v>367</v>
@@ -7981,13 +7969,13 @@
         <v>357946</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8043,13 @@
         <v>5795</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>48</v>
+        <v>572</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>573</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -8070,13 +8058,13 @@
         <v>14483</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>578</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -8085,13 +8073,13 @@
         <v>20278</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>581</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8094,13 @@
         <v>164132</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>579</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>580</v>
       </c>
       <c r="H26" s="7">
         <v>321</v>
@@ -8121,13 +8109,13 @@
         <v>208560</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>584</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M26" s="7">
         <v>547</v>
@@ -8136,13 +8124,13 @@
         <v>372692</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>587</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,13 +8198,13 @@
         <v>53316</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H28" s="7">
         <v>249</v>
@@ -8225,13 +8213,13 @@
         <v>133411</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="M28" s="7">
         <v>328</v>
@@ -8240,13 +8228,13 @@
         <v>186728</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,13 +8249,13 @@
         <v>643605</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H29" s="7">
         <v>1456</v>
@@ -8276,13 +8264,13 @@
         <v>891742</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M29" s="7">
         <v>2404</v>
@@ -8291,13 +8279,13 @@
         <v>1535346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8353,7 +8341,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5411-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E6B0CD-5B46-4769-BAC3-366F2524C1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFD66CC-5D71-4B41-B300-CFD51DBC5E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4EE82B7-8D06-40A3-ACDF-14ABD8D7716A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{48C7BB66-221D-4006-8D26-A86FD2255ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="614">
   <si>
     <t>Población según si es capaz de usar el baño o ducha en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -563,7 +563,58 @@
     <t>Población según si es capaz de usar el baño o ducha en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>12,18%</t>
@@ -668,52 +719,58 @@
     <t>86,53%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>21,21%</t>
@@ -1031,9 +1088,6 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
     <t>13,31%</t>
   </si>
   <si>
@@ -1055,9 +1109,6 @@
     <t>94,89%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
     <t>98,0%</t>
   </si>
   <si>
@@ -1259,9 +1310,6 @@
     <t>71,87%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
     <t>6,04%</t>
   </si>
   <si>
@@ -1286,9 +1334,6 @@
     <t>18,95%</t>
   </si>
   <si>
-    <t>89,09%</t>
-  </si>
-  <si>
     <t>82,15%</t>
   </si>
   <si>
@@ -1418,265 +1463,271 @@
     <t>Población según si es capaz de usar el baño o ducha en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>13,37%</t>
+    <t>13,33%</t>
   </si>
   <si>
     <t>21,02%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>95,89%</t>
@@ -1685,169 +1736,151 @@
     <t>78,98%</t>
   </si>
   <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA0FAAD-F182-412E-A775-36DD14A5B79B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58B387B-69E7-4B92-81DB-CD05F33B6778}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3790,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA37D2A-4B02-499B-A239-415DCF7E79D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6211191-BCEC-4EBB-927C-40C25CABA4FD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3908,43 +3941,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2845</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>14066</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N4" s="7">
+        <v>16911</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,43 +3992,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>41436</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I5" s="7">
+        <v>34828</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="N5" s="7">
+        <v>76264</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,43 +4043,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44281</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I6" s="7">
+        <v>48894</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N6" s="7">
+        <v>93175</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4102,13 @@
         <v>9646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4066,13 +4117,13 @@
         <v>27329</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -4081,13 +4132,13 @@
         <v>36974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4153,13 @@
         <v>69557</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>69</v>
@@ -4117,13 +4168,13 @@
         <v>74764</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>131</v>
@@ -4132,13 +4183,13 @@
         <v>144322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4257,13 @@
         <v>8218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4221,13 +4272,13 @@
         <v>17428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4236,13 +4287,13 @@
         <v>25646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,10 +4308,10 @@
         <v>47524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>58</v>
@@ -4272,13 +4323,13 @@
         <v>62540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
@@ -4287,13 +4338,13 @@
         <v>110064</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,49 +4406,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>10544</v>
+        <v>7699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>33212</v>
+        <v>19145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>43756</v>
+        <v>26845</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,49 +4457,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>97764</v>
+        <v>56329</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="7">
         <v>64</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="7">
-        <v>98</v>
-      </c>
       <c r="I14" s="7">
-        <v>101256</v>
+        <v>66429</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="N14" s="7">
-        <v>199021</v>
+        <v>122757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,10 +4508,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4472,10 +4523,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4487,10 +4538,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N15" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4516,13 +4567,13 @@
         <v>6705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4531,13 +4582,13 @@
         <v>13369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4546,13 +4597,13 @@
         <v>20074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4618,13 @@
         <v>24907</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -4582,13 +4633,13 @@
         <v>36486</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -4597,13 +4648,13 @@
         <v>61393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4722,13 @@
         <v>7495</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4686,13 +4737,13 @@
         <v>19139</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -4701,13 +4752,13 @@
         <v>26634</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,10 +4773,10 @@
         <v>44261</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>155</v>
@@ -4737,13 +4788,13 @@
         <v>51073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -4752,13 +4803,13 @@
         <v>95334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4877,13 @@
         <v>13450</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -4841,13 +4892,13 @@
         <v>30243</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -4856,13 +4907,13 @@
         <v>43694</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4928,13 @@
         <v>98813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>102</v>
@@ -4892,13 +4943,13 @@
         <v>111719</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>191</v>
@@ -4907,13 +4958,13 @@
         <v>210532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +5032,13 @@
         <v>5397</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -4996,13 +5047,13 @@
         <v>22363</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -5011,13 +5062,13 @@
         <v>27760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,10 +5083,10 @@
         <v>115355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>60</v>
@@ -5047,13 +5098,13 @@
         <v>142054</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>232</v>
@@ -5062,13 +5113,13 @@
         <v>257409</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5187,13 @@
         <v>61456</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>149</v>
@@ -5151,13 +5202,13 @@
         <v>163082</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>202</v>
@@ -5166,13 +5217,13 @@
         <v>224538</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5238,13 @@
         <v>498181</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="H29" s="7">
         <v>545</v>
@@ -5202,13 +5253,13 @@
         <v>579893</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>996</v>
@@ -5217,13 +5268,13 @@
         <v>1078074</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BC5DB9-4EB8-41FD-97FA-44B5A2C1FA7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF3A88F-4BD2-4D71-AC2B-01B4F4CE19E9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5320,7 +5371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5427,13 +5478,13 @@
         <v>5783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5442,13 +5493,13 @@
         <v>10613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5457,13 +5508,13 @@
         <v>16396</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5529,13 @@
         <v>33113</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -5493,13 +5544,13 @@
         <v>38778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -5508,13 +5559,13 @@
         <v>71891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5633,13 @@
         <v>4464</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5597,13 +5648,13 @@
         <v>15331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5612,13 +5663,13 @@
         <v>19796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5684,13 @@
         <v>82831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>84</v>
@@ -5648,13 +5699,13 @@
         <v>99897</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -5663,13 +5714,13 @@
         <v>182727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5788,13 @@
         <v>2817</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5752,13 +5803,13 @@
         <v>5711</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5767,13 +5818,13 @@
         <v>8528</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5839,13 @@
         <v>60729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>65</v>
@@ -5803,13 +5854,13 @@
         <v>74186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>134</v>
@@ -5818,13 +5869,13 @@
         <v>134915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,10 +5943,10 @@
         <v>7736</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>72</v>
@@ -5907,13 +5958,13 @@
         <v>11930</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5922,13 +5973,13 @@
         <v>19666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5994,13 @@
         <v>56976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -5958,13 +6009,13 @@
         <v>79644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -5973,13 +6024,13 @@
         <v>136619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6098,13 @@
         <v>799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6062,13 +6113,13 @@
         <v>6875</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6080,10 +6131,10 @@
         <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,10 +6149,10 @@
         <v>41281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -6113,13 +6164,13 @@
         <v>43657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6131,10 +6182,10 @@
         <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6253,13 @@
         <v>6643</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6217,13 +6268,13 @@
         <v>14886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6232,13 +6283,13 @@
         <v>21529</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6304,13 @@
         <v>41803</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -6268,13 +6319,13 @@
         <v>52502</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -6283,13 +6334,13 @@
         <v>94305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6408,13 @@
         <v>12241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>181</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6372,13 +6423,13 @@
         <v>24112</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6387,13 +6438,13 @@
         <v>36353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6459,13 @@
         <v>99944</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>415</v>
+        <v>191</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -6423,13 +6474,13 @@
         <v>123513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="M23" s="7">
         <v>201</v>
@@ -6438,13 +6489,13 @@
         <v>223457</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6563,13 @@
         <v>7371</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6527,13 +6578,13 @@
         <v>13229</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6542,13 +6593,13 @@
         <v>20600</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6614,13 @@
         <v>126797</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -6578,13 +6629,13 @@
         <v>163068</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>266</v>
@@ -6593,13 +6644,13 @@
         <v>289865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6718,13 @@
         <v>47855</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -6682,13 +6733,13 @@
         <v>102686</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>133</v>
@@ -6697,13 +6748,13 @@
         <v>150541</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,10 +6769,10 @@
         <v>543473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>155</v>
@@ -6733,13 +6784,13 @@
         <v>675245</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="M29" s="7">
         <v>1149</v>
@@ -6748,13 +6799,13 @@
         <v>1218718</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,7 +6885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4520EE-D028-4039-B61B-E3AF35E1FADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5869BF9-1B15-4D91-9F97-23B5E178F31E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6851,7 +6902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6955,46 +7006,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>3610</v>
+        <v>3849</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>459</v>
+        <v>37</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>461</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>9368</v>
+        <v>9400</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>12978</v>
+        <v>13249</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,46 +7057,46 @@
         <v>78</v>
       </c>
       <c r="D5" s="7">
-        <v>48310</v>
+        <v>52052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>468</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>469</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="H5" s="7">
         <v>115</v>
       </c>
       <c r="I5" s="7">
-        <v>52851</v>
+        <v>54009</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
       </c>
       <c r="N5" s="7">
-        <v>101161</v>
+        <v>106061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,7 +7108,7 @@
         <v>83</v>
       </c>
       <c r="D6" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7072,7 +7123,7 @@
         <v>132</v>
       </c>
       <c r="I6" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7087,7 +7138,7 @@
         <v>215</v>
       </c>
       <c r="N6" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7110,46 +7161,46 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>8694</v>
+        <v>8082</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
       </c>
       <c r="I7" s="7">
-        <v>28070</v>
+        <v>25029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>481</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>36764</v>
+        <v>33111</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>483</v>
+        <v>51</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,46 +7212,46 @@
         <v>86</v>
       </c>
       <c r="D8" s="7">
-        <v>77620</v>
+        <v>72627</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="H8" s="7">
         <v>181</v>
       </c>
       <c r="I8" s="7">
-        <v>113287</v>
+        <v>103963</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>491</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>267</v>
       </c>
       <c r="N8" s="7">
-        <v>190907</v>
+        <v>176589</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>492</v>
+        <v>59</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,7 +7263,7 @@
         <v>95</v>
       </c>
       <c r="D9" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7227,7 +7278,7 @@
         <v>223</v>
       </c>
       <c r="I9" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7242,7 +7293,7 @@
         <v>318</v>
       </c>
       <c r="N9" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7265,46 +7316,46 @@
         <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>12915</v>
+        <v>12153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>15667</v>
+        <v>14247</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>28581</v>
+        <v>26400</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,46 +7367,46 @@
         <v>101</v>
       </c>
       <c r="D11" s="7">
-        <v>64686</v>
+        <v>61337</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H11" s="7">
         <v>140</v>
       </c>
       <c r="I11" s="7">
-        <v>79284</v>
+        <v>73178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
       </c>
       <c r="N11" s="7">
-        <v>143971</v>
+        <v>134515</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,7 +7418,7 @@
         <v>122</v>
       </c>
       <c r="D12" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7382,7 +7433,7 @@
         <v>169</v>
       </c>
       <c r="I12" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7397,7 +7448,7 @@
         <v>291</v>
       </c>
       <c r="N12" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7420,46 +7471,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2987</v>
+        <v>2768</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>17837</v>
+        <v>16633</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>20824</v>
+        <v>19400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,46 +7522,46 @@
         <v>114</v>
       </c>
       <c r="D14" s="7">
-        <v>75818</v>
+        <v>71900</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>529</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
       </c>
       <c r="I14" s="7">
-        <v>92618</v>
+        <v>87003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="M14" s="7">
         <v>329</v>
       </c>
       <c r="N14" s="7">
-        <v>168436</v>
+        <v>158903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,7 +7573,7 @@
         <v>118</v>
       </c>
       <c r="D15" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7537,7 +7588,7 @@
         <v>256</v>
       </c>
       <c r="I15" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7552,7 +7603,7 @@
         <v>374</v>
       </c>
       <c r="N15" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7575,46 +7626,46 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>5651</v>
+        <v>5069</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>538</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>10676</v>
+        <v>9450</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>16327</v>
+        <v>14519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>543</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,46 +7677,46 @@
         <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>32680</v>
+        <v>29747</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>545</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
       </c>
       <c r="I17" s="7">
-        <v>54419</v>
+        <v>49445</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
       </c>
       <c r="N17" s="7">
-        <v>87099</v>
+        <v>79192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
+        <v>550</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>533</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,7 +7728,7 @@
         <v>71</v>
       </c>
       <c r="D18" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7692,7 +7743,7 @@
         <v>164</v>
       </c>
       <c r="I18" s="7">
-        <v>65095</v>
+        <v>58895</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7707,7 +7758,7 @@
         <v>235</v>
       </c>
       <c r="N18" s="7">
-        <v>103426</v>
+        <v>93711</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7730,46 +7781,46 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>5221</v>
+        <v>4959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
       </c>
       <c r="I19" s="7">
-        <v>14682</v>
+        <v>13720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
       </c>
       <c r="N19" s="7">
-        <v>19903</v>
+        <v>18679</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,46 +7832,46 @@
         <v>123</v>
       </c>
       <c r="D20" s="7">
-        <v>57962</v>
+        <v>55302</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="H20" s="7">
         <v>136</v>
       </c>
       <c r="I20" s="7">
-        <v>55171</v>
+        <v>51538</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>259</v>
       </c>
       <c r="N20" s="7">
-        <v>113134</v>
+        <v>106840</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,7 +7883,7 @@
         <v>135</v>
       </c>
       <c r="D21" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7847,7 +7898,7 @@
         <v>177</v>
       </c>
       <c r="I21" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7862,7 +7913,7 @@
         <v>312</v>
       </c>
       <c r="N21" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7885,46 +7936,46 @@
         <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>8445</v>
+        <v>7761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>331</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
       </c>
       <c r="I22" s="7">
-        <v>22629</v>
+        <v>19761</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
       </c>
       <c r="N22" s="7">
-        <v>31074</v>
+        <v>27522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,46 +7987,46 @@
         <v>159</v>
       </c>
       <c r="D23" s="7">
-        <v>122395</v>
+        <v>115493</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>562</v>
+        <v>340</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>564</v>
+        <v>24</v>
       </c>
       <c r="H23" s="7">
         <v>208</v>
       </c>
       <c r="I23" s="7">
-        <v>235551</v>
+        <v>318820</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="M23" s="7">
         <v>367</v>
       </c>
       <c r="N23" s="7">
-        <v>357946</v>
+        <v>434314</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,7 +8038,7 @@
         <v>168</v>
       </c>
       <c r="D24" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8002,7 +8053,7 @@
         <v>241</v>
       </c>
       <c r="I24" s="7">
-        <v>258180</v>
+        <v>338581</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8017,7 +8068,7 @@
         <v>409</v>
       </c>
       <c r="N24" s="7">
-        <v>389020</v>
+        <v>461836</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8040,46 +8091,46 @@
         <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>5795</v>
+        <v>5010</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
       </c>
       <c r="I25" s="7">
-        <v>14483</v>
+        <v>12032</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>589</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
       </c>
       <c r="N25" s="7">
-        <v>20278</v>
+        <v>17042</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>576</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,46 +8142,46 @@
         <v>226</v>
       </c>
       <c r="D26" s="7">
-        <v>164132</v>
+        <v>142070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="H26" s="7">
         <v>321</v>
       </c>
       <c r="I26" s="7">
-        <v>208560</v>
+        <v>174610</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>596</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="M26" s="7">
         <v>547</v>
       </c>
       <c r="N26" s="7">
-        <v>372692</v>
+        <v>316680</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>583</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>598</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,7 +8193,7 @@
         <v>235</v>
       </c>
       <c r="D27" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8157,7 +8208,7 @@
         <v>343</v>
       </c>
       <c r="I27" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8172,7 +8223,7 @@
         <v>578</v>
       </c>
       <c r="N27" s="7">
-        <v>392970</v>
+        <v>333722</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8195,46 +8246,46 @@
         <v>79</v>
       </c>
       <c r="D28" s="7">
-        <v>53316</v>
+        <v>49651</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="H28" s="7">
         <v>249</v>
       </c>
       <c r="I28" s="7">
-        <v>133411</v>
+        <v>120272</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="M28" s="7">
         <v>328</v>
       </c>
       <c r="N28" s="7">
-        <v>186728</v>
+        <v>169923</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>592</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>593</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,46 +8297,46 @@
         <v>948</v>
       </c>
       <c r="D29" s="7">
-        <v>643605</v>
+        <v>600527</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="H29" s="7">
         <v>1456</v>
       </c>
       <c r="I29" s="7">
-        <v>891742</v>
+        <v>912566</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="M29" s="7">
         <v>2404</v>
       </c>
       <c r="N29" s="7">
-        <v>1535346</v>
+        <v>1513093</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>601</v>
+        <v>235</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,7 +8348,7 @@
         <v>1027</v>
       </c>
       <c r="D30" s="7">
-        <v>696921</v>
+        <v>650178</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8312,7 +8363,7 @@
         <v>1705</v>
       </c>
       <c r="I30" s="7">
-        <v>1025153</v>
+        <v>1032838</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8327,7 +8378,7 @@
         <v>2732</v>
       </c>
       <c r="N30" s="7">
-        <v>1722074</v>
+        <v>1683016</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
